--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>-7.549441727415891</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.22450676403501</v>
+        <v>-16.47053625659877</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4069757333265365</v>
+        <v>0.3464153358581901</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.184063455044067</v>
+        <v>-6.031123006792018</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.800292344095187</v>
       </c>
       <c r="E3" t="n">
-        <v>-16.91268825962882</v>
+        <v>-17.28194517027318</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5986736925782716</v>
+        <v>0.1101002999389891</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.479520807032339</v>
+        <v>-6.235307489581854</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.054074618298853</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.85062956002585</v>
+        <v>-18.24390127240049</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4920493418177235</v>
+        <v>0.1517399714245038</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.640628250317787</v>
+        <v>-6.368484036636617</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.429153431330814</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.31803328352353</v>
+        <v>-18.60764827230583</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2724449313696379</v>
+        <v>0.4200388902670623</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.545933076312512</v>
+        <v>-6.156491809880317</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.916123369920987</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.22818057988215</v>
+        <v>-19.55110437244874</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3982390780553595</v>
+        <v>0.2989186341461114</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.136713423537996</v>
+        <v>-5.696939831410913</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.542440503026142</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.90851033044769</v>
+        <v>-20.31993981432606</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5518565628206941</v>
+        <v>0.09496393467902046</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.033848719058106</v>
+        <v>-5.441767896006022</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.304948167151665</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.41462032131073</v>
+        <v>-20.75780415833383</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5242825640912938</v>
+        <v>0.102062772649781</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.842634771486195</v>
+        <v>-5.214619747962286</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.199940267793689</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.94567402520877</v>
+        <v>-21.28276615967568</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3443817784094244</v>
+        <v>0.3267713062669258</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.915710757125973</v>
+        <v>-5.221963036276392</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.213126991364579</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.66936437767698</v>
+        <v>-22.0005310358212</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2334795466403257</v>
+        <v>0.4303351387287851</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.921822015709616</v>
+        <v>-5.181110494896451</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.315705019059443</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.90908940494808</v>
+        <v>-23.19893906606</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.250708406839334</v>
+        <v>0.4159859035743898</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.640894792129817</v>
+        <v>-4.904979387053094</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.486226569623041</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.52348111989954</v>
+        <v>-23.84611157205413</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06407056969485589</v>
+        <v>0.6038802154836651</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.295486456982275</v>
+        <v>-4.622551238365152</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.685569580523815</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.49948333875551</v>
+        <v>-24.78633603865801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3800957041643672</v>
+        <v>1.109682198914085</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.962369085098159</v>
+        <v>-4.371207395337055</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.889996508446899</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.35168612572745</v>
+        <v>-25.69959274338399</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6788971368496081</v>
+        <v>1.48956781048711</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.258312984207471</v>
+        <v>-3.656522593517693</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.066388989665456</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.14832534965691</v>
+        <v>-26.47174293191707</v>
       </c>
       <c r="F15" t="n">
-        <v>1.081897972889407</v>
+        <v>1.907245445141388</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.706319663898439</v>
+        <v>-3.223219692916755</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.197765254452431</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.85930428427115</v>
+        <v>-27.22216881843701</v>
       </c>
       <c r="F16" t="n">
-        <v>1.265426401666528</v>
+        <v>2.066886186366762</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.341277077173368</v>
+        <v>-2.991544324514257</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.274053363001402</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.95243244063779</v>
+        <v>-28.35276632343169</v>
       </c>
       <c r="F17" t="n">
-        <v>1.423311989426679</v>
+        <v>2.342577283592096</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.974577117120412</v>
+        <v>-2.674643788407697</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.295099628488333</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.61402262788246</v>
+        <v>-29.04947180249797</v>
       </c>
       <c r="F18" t="n">
-        <v>1.592808968495753</v>
+        <v>2.592283309319777</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.919634457950022</v>
+        <v>-2.699690170586902</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.274365603125879</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.39565015622705</v>
+        <v>-29.80419512605393</v>
       </c>
       <c r="F19" t="n">
-        <v>2.027519903074363</v>
+        <v>3.073527811257683</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.242360336676294</v>
+        <v>-2.060765419177255</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.223273442480877</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.22607486211032</v>
+        <v>-30.61522758619959</v>
       </c>
       <c r="F20" t="n">
-        <v>2.311595647076456</v>
+        <v>3.412609771519436</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.226192390967406</v>
+        <v>-2.110823960487597</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.167307785318535</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.91621440495434</v>
+        <v>-31.33127886543825</v>
       </c>
       <c r="F21" t="n">
-        <v>2.73943752700705</v>
+        <v>3.879123695767327</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.398265876655344</v>
+        <v>-2.309742982881766</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.117569109274298</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.38334434406746</v>
+        <v>-31.82723194453527</v>
       </c>
       <c r="F22" t="n">
-        <v>2.946540746896434</v>
+        <v>4.111796421570676</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.395860485276822</v>
+        <v>-2.392528536159237</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.093800759216408</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.79465649178102</v>
+        <v>-32.17102690741673</v>
       </c>
       <c r="F23" t="n">
-        <v>3.201742016342527</v>
+        <v>4.360236194519826</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.446055918779438</v>
+        <v>-2.43716516885417</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.098667059687803</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.21610355072968</v>
+        <v>-32.56395150030382</v>
       </c>
       <c r="F24" t="n">
-        <v>3.671306680875373</v>
+        <v>4.919431021943824</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.48581332262119</v>
+        <v>-2.498013748319794</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.135021975623437</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.2800713165764</v>
+        <v>-32.56593154808492</v>
       </c>
       <c r="F25" t="n">
-        <v>3.810775379767856</v>
+        <v>5.037788989184969</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.356254640647944</v>
+        <v>-2.369975547482158</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.195862161418432</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.21929118320691</v>
+        <v>-32.45436930038878</v>
       </c>
       <c r="F26" t="n">
-        <v>3.68771418792074</v>
+        <v>4.887769813473684</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.595077737089873</v>
+        <v>-2.618747772898258</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.269553082891699</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.2603881749302</v>
+        <v>-32.50428850500342</v>
       </c>
       <c r="F27" t="n">
-        <v>3.880233500326117</v>
+        <v>5.066741687850839</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.288908571056191</v>
+        <v>-2.269418454243451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.344966581114024</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.00718162028581</v>
+        <v>-32.29461855650891</v>
       </c>
       <c r="F28" t="n">
-        <v>4.034633226190158</v>
+        <v>5.166638765162512</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.630410589717067</v>
+        <v>-2.667535172423202</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.402280671425154</v>
       </c>
       <c r="E29" t="n">
-        <v>-32.17094379429999</v>
+        <v>-32.37220465098341</v>
       </c>
       <c r="F29" t="n">
-        <v>3.739894558211323</v>
+        <v>4.823753157558299</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.763621359819899</v>
+        <v>-2.661023015276472</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.431855546612668</v>
       </c>
       <c r="E30" t="n">
-        <v>-32.22914008754032</v>
+        <v>-32.49903771162835</v>
       </c>
       <c r="F30" t="n">
-        <v>3.644671371464421</v>
+        <v>4.703654703872533</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.08895054376502</v>
+        <v>-2.963750320475846</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.414034107270223</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.78617162036349</v>
+        <v>-32.01724564092135</v>
       </c>
       <c r="F31" t="n">
-        <v>3.530161052627539</v>
+        <v>4.593075146556651</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.825648189940448</v>
+        <v>-2.763863274722028</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.343875805344845</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.65226905578898</v>
+        <v>-31.90219264232224</v>
       </c>
       <c r="F32" t="n">
-        <v>3.244232375022885</v>
+        <v>4.191096112952037</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.208305868407014</v>
+        <v>-3.036655190875281</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.21102431150698</v>
       </c>
       <c r="E33" t="n">
-        <v>-31.27544885152152</v>
+        <v>-31.54893256214644</v>
       </c>
       <c r="F33" t="n">
-        <v>3.419801500620668</v>
+        <v>4.306154000558013</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.047599323684653</v>
+        <v>-2.860289157158191</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.017551967351699</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.98003794509848</v>
+        <v>-31.31168861492252</v>
       </c>
       <c r="F34" t="n">
-        <v>3.02293147919198</v>
+        <v>3.948938713826873</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.120103295521002</v>
+        <v>-2.810269727902785</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.768765409482601</v>
       </c>
       <c r="E35" t="n">
-        <v>-30.13524689253678</v>
+        <v>-30.48204615013796</v>
       </c>
       <c r="F35" t="n">
-        <v>3.009085811744877</v>
+        <v>3.903412281882161</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.144660777013516</v>
+        <v>-2.851889843360831</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.476314489783973</v>
       </c>
       <c r="E36" t="n">
-        <v>-30.14407643893843</v>
+        <v>-30.50436202198199</v>
       </c>
       <c r="F36" t="n">
-        <v>3.122980115716528</v>
+        <v>3.964598202821601</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.867952766359864</v>
+        <v>-2.464876059775844</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.159476671150038</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.63034937537674</v>
+        <v>-29.97186606105821</v>
       </c>
       <c r="F37" t="n">
-        <v>2.987300397145904</v>
+        <v>3.83644266581916</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.599800517723313</v>
+        <v>-2.14460699793798</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.834311651589501</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.85533178431621</v>
+        <v>-29.24753524869043</v>
       </c>
       <c r="F38" t="n">
-        <v>2.713682238832142</v>
+        <v>3.475604624999635</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.3842637609885</v>
+        <v>-1.862398854559048</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.526531487550172</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.53427559237278</v>
+        <v>-28.96345461568147</v>
       </c>
       <c r="F39" t="n">
-        <v>2.605429848784911</v>
+        <v>3.360312065064047</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.403130438487925</v>
+        <v>-1.846846923715392</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.249892330029111</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.79513353370167</v>
+        <v>-28.27123480041558</v>
       </c>
       <c r="F40" t="n">
-        <v>2.705654489556668</v>
+        <v>3.365142403848559</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.080001307632915</v>
+        <v>-1.544491183037904</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.026130560333815</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.56940564215278</v>
+        <v>-28.10155692809244</v>
       </c>
       <c r="F41" t="n">
-        <v>2.592992215315479</v>
+        <v>3.21983623075698</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.147992726131101</v>
+        <v>-1.540736425764113</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.861135432656328</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.80660079024581</v>
+        <v>-27.40133380858541</v>
       </c>
       <c r="F42" t="n">
-        <v>2.183645448362425</v>
+        <v>2.803561741073506</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.087501044166763</v>
+        <v>-1.40112594567249</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.761448200693255</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.46735993726088</v>
+        <v>-27.09331659795603</v>
       </c>
       <c r="F43" t="n">
-        <v>2.281753149160807</v>
+        <v>2.89585152370026</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.00769778507811</v>
+        <v>-1.312043351550432</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.722666358184887</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.74896193472609</v>
+        <v>-26.41831586487542</v>
       </c>
       <c r="F44" t="n">
-        <v>2.285713244723008</v>
+        <v>2.850002417302331</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.9301874702100404</v>
+        <v>-1.139568967299407</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.736479384773107</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.29979420684202</v>
+        <v>-26.0168990670605</v>
       </c>
       <c r="F45" t="n">
-        <v>2.376903000804706</v>
+        <v>2.896902660176647</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.008377357032611</v>
+        <v>-1.140786330009269</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.793472503908736</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.75283167459904</v>
+        <v>-25.41719881774411</v>
       </c>
       <c r="F46" t="n">
-        <v>2.392899831273251</v>
+        <v>2.950706180747046</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.112038969631809</v>
+        <v>-1.251028545851334</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.876927522486381</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.52901294023167</v>
+        <v>-25.33394880881428</v>
       </c>
       <c r="F47" t="n">
-        <v>2.448893626920028</v>
+        <v>3.040165228397855</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.130690530829089</v>
+        <v>-1.251727673833303</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.977711961086143</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.16349123083365</v>
+        <v>-25.0100472148743</v>
       </c>
       <c r="F48" t="n">
-        <v>2.197515560843862</v>
+        <v>2.73477830346288</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.249796516120871</v>
+        <v>-1.407334984393472</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.078055195737852</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.12261677986059</v>
+        <v>-23.9940186967989</v>
       </c>
       <c r="F49" t="n">
-        <v>2.443950840977577</v>
+        <v>3.008973364586938</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.435779226345183</v>
+        <v>-1.540066631823346</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.174803510022414</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.94616763302676</v>
+        <v>-23.83843583127307</v>
       </c>
       <c r="F50" t="n">
-        <v>2.455146666702813</v>
+        <v>2.981169582534792</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.572148294884042</v>
+        <v>-1.685768814471145</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.26063977957826</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.46923034613861</v>
+        <v>-23.38973744804822</v>
       </c>
       <c r="F51" t="n">
-        <v>2.383747610418387</v>
+        <v>2.940664160642402</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.550548662546011</v>
+        <v>-1.70747111595338</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.339408852454394</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.82996825325514</v>
+        <v>-22.75755463710805</v>
       </c>
       <c r="F52" t="n">
-        <v>2.589594355542974</v>
+        <v>3.142897929692339</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.659353510369203</v>
+        <v>-1.768300139391536</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.413649352025716</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.41417288624463</v>
+        <v>-22.3511021622202</v>
       </c>
       <c r="F53" t="n">
-        <v>2.6688842689106</v>
+        <v>3.231296062853028</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.737870960651857</v>
+        <v>-1.914769896117441</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.488705865227161</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.84645651985159</v>
+        <v>-21.82600815769294</v>
       </c>
       <c r="F54" t="n">
-        <v>2.852192692378709</v>
+        <v>3.456161044689914</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.608439392857151</v>
+        <v>-1.711680550865794</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.5707112807658</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.57200723037046</v>
+        <v>-21.61291101538472</v>
       </c>
       <c r="F55" t="n">
-        <v>2.691158584196264</v>
+        <v>3.286659176613973</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.832844808048547</v>
+        <v>-1.969150319498136</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.660110501988769</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.95871065295718</v>
+        <v>-21.04783960170669</v>
       </c>
       <c r="F56" t="n">
-        <v>2.800124769246065</v>
+        <v>3.366061537139539</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.111845762922782</v>
+        <v>-2.264808120767951</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.761944942883646</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.58732213531885</v>
+        <v>-20.66920068688473</v>
       </c>
       <c r="F57" t="n">
-        <v>2.614503845529905</v>
+        <v>3.25542820074812</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.156115720102698</v>
+        <v>-2.336901416027478</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.869813272097715</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.95759360582587</v>
+        <v>-20.12925876850264</v>
       </c>
       <c r="F58" t="n">
-        <v>2.596512300259658</v>
+        <v>3.220760253054826</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.547906063396661</v>
+        <v>-2.742072971116188</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.984814319020456</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.48908496677628</v>
+        <v>-19.71122423634707</v>
       </c>
       <c r="F59" t="n">
-        <v>2.712885330712834</v>
+        <v>3.351756303046945</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.331313281178595</v>
+        <v>-2.568992350013665</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.096749140320747</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.07162733743101</v>
+        <v>-19.28631576053663</v>
       </c>
       <c r="F60" t="n">
-        <v>2.556632671246233</v>
+        <v>3.187568785435341</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.865447059402787</v>
+        <v>-3.088767115069728</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.202277399710077</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.55325571734575</v>
+        <v>-18.77269625512601</v>
       </c>
       <c r="F61" t="n">
-        <v>2.543447019726163</v>
+        <v>3.197058347764023</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.998975614951968</v>
+        <v>-3.111466773952814</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.293633635603983</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.48361670353342</v>
+        <v>-18.71041519664838</v>
       </c>
       <c r="F62" t="n">
-        <v>2.364739151719821</v>
+        <v>2.99123604767377</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.22023250972107</v>
+        <v>-3.382620872805651</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.366842446864515</v>
       </c>
       <c r="E63" t="n">
-        <v>-16.66600852915176</v>
+        <v>-17.89021584862726</v>
       </c>
       <c r="F63" t="n">
-        <v>2.441721453846264</v>
+        <v>3.116991082304557</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.062684263434736</v>
+        <v>-3.246002464916579</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.421398825085349</v>
       </c>
       <c r="E64" t="n">
-        <v>-16.61899095011264</v>
+        <v>-17.93430002354624</v>
       </c>
       <c r="F64" t="n">
-        <v>2.088163144251576</v>
+        <v>2.80369863326578</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.070668011648408</v>
+        <v>-3.29478008642779</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.45569500383942</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.33069110417753</v>
+        <v>-17.63119626481811</v>
       </c>
       <c r="F65" t="n">
-        <v>2.408657100405318</v>
+        <v>3.118765791797247</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.117656256646328</v>
+        <v>-3.297121920717042</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.478781629738045</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.1494116185592</v>
+        <v>-17.4498385550899</v>
       </c>
       <c r="F66" t="n">
-        <v>2.437771136297797</v>
+        <v>3.212004041756181</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.255692476526804</v>
+        <v>-3.388507237073416</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.491744276550817</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.78665708704784</v>
+        <v>-17.13573941991809</v>
       </c>
       <c r="F67" t="n">
-        <v>2.006223389162081</v>
+        <v>2.709145240459645</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.322393197212125</v>
+        <v>-3.468921622020433</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.507909818046247</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.58479488251979</v>
+        <v>-16.95203987590062</v>
       </c>
       <c r="F68" t="n">
-        <v>2.03330848720479</v>
+        <v>2.751562264036999</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.348852502375869</v>
+        <v>-3.53797395500874</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.528398003257858</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.53782619354934</v>
+        <v>-16.99986903007965</v>
       </c>
       <c r="F69" t="n">
-        <v>2.112050831803322</v>
+        <v>2.865109448521098</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.237119139439395</v>
+        <v>-3.371723276499297</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.562067413748764</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.30161871578121</v>
+        <v>-16.70509613905275</v>
       </c>
       <c r="F70" t="n">
-        <v>1.845961744064609</v>
+        <v>2.630310004730641</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.047816793552448</v>
+        <v>-3.164673835685449</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.609436499165759</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.32015294081368</v>
+        <v>-16.76021480247035</v>
       </c>
       <c r="F71" t="n">
-        <v>1.907230778120787</v>
+        <v>2.650071370486712</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.972530976808825</v>
+        <v>-3.120628772821412</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.671603105090199</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.35324173928896</v>
+        <v>-16.84990852245077</v>
       </c>
       <c r="F72" t="n">
-        <v>1.746793128776106</v>
+        <v>2.544107035653197</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.816816108097584</v>
+        <v>-2.957463057644993</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.747046205345647</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.18721106608853</v>
+        <v>-16.63973989525583</v>
       </c>
       <c r="F73" t="n">
-        <v>1.594681458125782</v>
+        <v>2.36529649850265</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.685267600329503</v>
+        <v>-2.934753620748173</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.826913098096568</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.43137295802913</v>
+        <v>-16.83840468929292</v>
       </c>
       <c r="F74" t="n">
-        <v>1.457393256295943</v>
+        <v>2.278682852848384</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.162715879373033</v>
+        <v>-2.414793073431167</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.90652966820732</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.56389926717059</v>
+        <v>-16.9666580064327</v>
       </c>
       <c r="F75" t="n">
-        <v>1.417005170568358</v>
+        <v>2.241228171240949</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.939865168365315</v>
+        <v>-2.289952283084494</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.969892630876391</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.56597220608217</v>
+        <v>-16.99284841621876</v>
       </c>
       <c r="F76" t="n">
-        <v>1.447634798589581</v>
+        <v>2.226258032214455</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.778185711276438</v>
+        <v>-2.123261593957029</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.012425392448778</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.74107687602759</v>
+        <v>-17.13562208375328</v>
       </c>
       <c r="F77" t="n">
-        <v>1.306269165032735</v>
+        <v>2.110007226932952</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.391797720570416</v>
+        <v>-1.721390118503487</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.01993075678775</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.20477962132701</v>
+        <v>-17.54177632922224</v>
       </c>
       <c r="F78" t="n">
-        <v>1.155937092881967</v>
+        <v>1.944925021064702</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.063740470793556</v>
+        <v>-1.40927103111277</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.990037040147819</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.64703918250813</v>
+        <v>-17.92589093173514</v>
       </c>
       <c r="F79" t="n">
-        <v>1.198696346940005</v>
+        <v>1.970905203555487</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.718615698044296</v>
+        <v>-1.073904716069872</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.917505419677481</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.90477295751129</v>
+        <v>-18.1252401867336</v>
       </c>
       <c r="F80" t="n">
-        <v>1.023391227713036</v>
+        <v>1.79117553311396</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5175064005737496</v>
+        <v>-0.8695980081083635</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.804385655838664</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.7451296808447</v>
+        <v>-18.96099146559838</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9020558552899408</v>
+        <v>1.682629802654715</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1279698894454342</v>
+        <v>-0.4836158049722952</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.656386412886312</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.33651861848733</v>
+        <v>-19.51111229627738</v>
       </c>
       <c r="F82" t="n">
-        <v>0.668263546914068</v>
+        <v>1.495507953830412</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04305734877298446</v>
+        <v>-0.3426755150128711</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.479363068139595</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.06827583228596</v>
+        <v>-20.18464143829105</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5751279660993383</v>
+        <v>1.298857430622492</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4242189911382745</v>
+        <v>0.00932809039813823</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.287560832757602</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.15113707423208</v>
+        <v>-21.27578465786973</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4373361965622073</v>
+        <v>1.19498070172115</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8621713372696487</v>
+        <v>0.4726886052168693</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.087446609589295</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.83776875464909</v>
+        <v>-21.89730943384003</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5285015076095704</v>
+        <v>1.329531059705516</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9536055436946921</v>
+        <v>0.5417164931708415</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.894998134715484</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.83772710715293</v>
+        <v>-22.84282380587391</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2051083703837473</v>
+        <v>0.977175445800089</v>
       </c>
       <c r="G86" t="n">
-        <v>1.472764293885523</v>
+        <v>1.045245088408146</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.713475447127942</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.596505861905</v>
+        <v>-23.53722411820244</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2149988312755163</v>
+        <v>0.9610368341324028</v>
       </c>
       <c r="G87" t="n">
-        <v>1.622118564662908</v>
+        <v>1.175722903672372</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.554090780942671</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.58775200417201</v>
+        <v>-24.58064574175316</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04693922022531492</v>
+        <v>0.7468885553477942</v>
       </c>
       <c r="G88" t="n">
-        <v>1.926786805588447</v>
+        <v>1.515376877737554</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.418992997126738</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.83032243343964</v>
+        <v>-25.74076307021028</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.3320272580567304</v>
+        <v>0.2715890857600568</v>
       </c>
       <c r="G89" t="n">
-        <v>1.958003114433699</v>
+        <v>1.593723212779866</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.311815983088517</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.31133950562045</v>
+        <v>-27.16110267816581</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5344125863195416</v>
+        <v>0.1133808235466891</v>
       </c>
       <c r="G90" t="n">
-        <v>1.828170648075906</v>
+        <v>1.456694128313974</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.233508945213077</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.86827063192729</v>
+        <v>-28.68728439578318</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.800760791422201</v>
+        <v>-0.2093962988139027</v>
       </c>
       <c r="G91" t="n">
-        <v>1.529921673166626</v>
+        <v>1.146173746168738</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.18040253370846</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.30040252444581</v>
+        <v>-30.12964409066729</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.024711528974974</v>
+        <v>-0.4035974295814983</v>
       </c>
       <c r="G92" t="n">
-        <v>1.483510330979003</v>
+        <v>1.114419646568126</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.153219187681566</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.02522459106594</v>
+        <v>-31.80868060797876</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.330264680143424</v>
+        <v>-0.8260662909653528</v>
       </c>
       <c r="G93" t="n">
-        <v>1.221415561850559</v>
+        <v>0.8682777068464255</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.143784913518503</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.95431425359264</v>
+        <v>-33.67684102242654</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.609524752381606</v>
+        <v>-1.141294786723428</v>
       </c>
       <c r="G94" t="n">
-        <v>1.092380003612073</v>
+        <v>0.8695586266455572</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.15436395230661</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.08509744991049</v>
+        <v>-35.87030373128166</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.091810612782165</v>
+        <v>-1.693679227581813</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8016649882847093</v>
+        <v>0.5542812408188129</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.179511789374308</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.99502220551888</v>
+        <v>-37.71278708166439</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.260940916336221</v>
+        <v>-1.958477617507661</v>
       </c>
       <c r="G96" t="n">
-        <v>0.271349524423578</v>
+        <v>0.1053579632780816</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.219503579411993</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.86633602939581</v>
+        <v>-39.54784891962315</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.618346874335171</v>
+        <v>-2.39692864233946</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1792946835343074</v>
+        <v>-0.2630531491782943</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.277521617511717</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.09952680805149</v>
+        <v>-41.68114017646372</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.888469392739089</v>
+        <v>-2.658006498039585</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.5285408890723767</v>
+        <v>-0.5549415261537174</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.34861753351177</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.25069471850093</v>
+        <v>-43.8080830578876</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.91959281045387</v>
+        <v>-2.778021838608614</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.9031072611741985</v>
+        <v>-0.9157306769045729</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.450933719700111</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.73883498274905</v>
+        <v>-46.24300403788592</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.457095114409366</v>
+        <v>-3.343503928863464</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.294379369740269</v>
+        <v>-1.249918741292544</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.567173246297608</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.81068242353795</v>
+        <v>-48.2838197298388</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.37165483040316</v>
+        <v>-3.285134075879367</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.827476678508675</v>
+        <v>-1.794422103081463</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.7438723438642</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.16019978708157</v>
+        <v>-50.57968268752145</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.664080998133944</v>
+        <v>-3.643156048743548</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.330902604601774</v>
+        <v>-2.343403795160475</v>
       </c>
     </row>
   </sheetData>
